--- a/source_code/BattleTech Weapon Efficiency.xlsx
+++ b/source_code/BattleTech Weapon Efficiency.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748740F7-2ADE-423D-9BA1-81480A147A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080986E4-35F1-4DB1-877C-4E2353A09F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,7 +857,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1100,6 +1100,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,29 +1127,32 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1417,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,13 +1470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -1476,91 +1497,91 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="2:28" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="84" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="87" t="s">
+      <c r="R2" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="87" t="s">
+      <c r="S2" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="84"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
       <c r="W2" s="6"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="2:28" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
       <c r="T3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1588,7 +1609,7 @@
       <c r="E4" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="93">
         <v>6</v>
       </c>
       <c r="G4" s="28">
@@ -1666,7 +1687,7 @@
       <c r="E5" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="93">
         <v>6</v>
       </c>
       <c r="G5" s="28">
@@ -1744,7 +1765,7 @@
       <c r="E6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="93">
         <v>6</v>
       </c>
       <c r="G6" s="28">
@@ -1822,7 +1843,7 @@
       <c r="E7" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="93">
         <v>8</v>
       </c>
       <c r="G7" s="28">
@@ -1900,7 +1921,7 @@
       <c r="E8" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="93">
         <v>8</v>
       </c>
       <c r="G8" s="28">
@@ -1978,7 +1999,7 @@
       <c r="E9" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="93">
         <v>8</v>
       </c>
       <c r="G9" s="28">
@@ -2056,7 +2077,7 @@
       <c r="E10" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="93">
         <v>12</v>
       </c>
       <c r="G10" s="28">
@@ -2134,7 +2155,7 @@
       <c r="E11" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="93">
         <v>12</v>
       </c>
       <c r="G11" s="28">
@@ -2212,7 +2233,7 @@
       <c r="E12" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="93">
         <v>12</v>
       </c>
       <c r="G12" s="28">
@@ -2290,7 +2311,7 @@
       <c r="E13" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="94">
         <v>14</v>
       </c>
       <c r="G13" s="33">
@@ -2368,7 +2389,7 @@
       <c r="E14" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="94">
         <v>14</v>
       </c>
       <c r="G14" s="33">
@@ -2446,7 +2467,7 @@
       <c r="E15" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="94">
         <v>14</v>
       </c>
       <c r="G15" s="33">
@@ -2524,7 +2545,7 @@
       <c r="E16" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="93">
         <v>15</v>
       </c>
       <c r="G16" s="28">
@@ -2602,7 +2623,7 @@
       <c r="E17" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="93">
         <v>13</v>
       </c>
       <c r="G17" s="28">
@@ -2680,7 +2701,7 @@
       <c r="E18" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="93">
         <v>13</v>
       </c>
       <c r="G18" s="28">
@@ -2758,7 +2779,7 @@
       <c r="E19" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="94">
         <v>7</v>
       </c>
       <c r="G19" s="33">
@@ -2836,8 +2857,8 @@
       <c r="E20" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="33">
-        <v>7</v>
+      <c r="F20" s="94">
+        <v>6</v>
       </c>
       <c r="G20" s="33">
         <v>2</v>
@@ -2857,7 +2878,7 @@
       </c>
       <c r="L20" s="30">
         <f t="shared" ref="L20" si="67">K20/(F20+M20+N20)</f>
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" ref="M20" si="68">ROUNDDOWN(I20/3,0)</f>
@@ -2869,7 +2890,7 @@
       </c>
       <c r="O20" s="32">
         <f t="shared" ref="O20" si="70">F20+M20+N20</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="47">
@@ -2886,15 +2907,15 @@
       </c>
       <c r="T20" s="43">
         <f t="shared" ref="T20" si="74">K20/(F20+M20+Q20)</f>
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="U20" s="24">
         <f t="shared" ref="U20" si="75">K20/(F20+M20+R20)</f>
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="V20" s="27">
         <f t="shared" ref="V20" si="76">K20/(F20+M20+S20)</f>
-        <v>5.4545454545454541</v>
+        <v>6</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="3"/>
@@ -2914,7 +2935,7 @@
       <c r="E21" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="94">
         <v>5</v>
       </c>
       <c r="G21" s="33">
@@ -2992,7 +3013,7 @@
       <c r="E22" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="94">
         <v>9</v>
       </c>
       <c r="G22" s="33">
@@ -3070,14 +3091,14 @@
       <c r="E23" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="33">
-        <v>9</v>
+      <c r="F23" s="94">
+        <v>8</v>
       </c>
       <c r="G23" s="33">
         <v>2</v>
       </c>
       <c r="H23" s="28">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I23" s="33">
         <v>16</v>
@@ -3087,11 +3108,11 @@
       </c>
       <c r="K23" s="29">
         <f t="shared" ref="K23" si="77">G23*H23</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L23" s="30">
         <f t="shared" ref="L23" si="78">K23/(F23+M23+N23)</f>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" ref="M23" si="79">ROUNDDOWN(I23/3,0)</f>
@@ -3103,7 +3124,7 @@
       </c>
       <c r="O23" s="32">
         <f t="shared" ref="O23" si="81">F23+M23+N23</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="47">
@@ -3120,15 +3141,15 @@
       </c>
       <c r="T23" s="43">
         <f t="shared" ref="T23" si="85">K23/(F23+M23+Q23)</f>
-        <v>6.666666666666667</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" ref="U23" si="86">K23/(F23+M23+R23)</f>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="V23" s="27">
         <f t="shared" ref="V23" si="87">K23/(F23+M23+S23)</f>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="3"/>
@@ -3148,14 +3169,14 @@
       <c r="E24" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="94">
         <v>7</v>
       </c>
       <c r="G24" s="33">
         <v>2</v>
       </c>
       <c r="H24" s="28">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I24" s="33">
         <v>16</v>
@@ -3165,11 +3186,11 @@
       </c>
       <c r="K24" s="29">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L24" s="30">
         <f t="shared" si="1"/>
-        <v>7.8571428571428568</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="2"/>
@@ -3198,15 +3219,15 @@
       </c>
       <c r="T24" s="43">
         <f t="shared" si="8"/>
-        <v>8.4615384615384617</v>
+        <v>6.9230769230769234</v>
       </c>
       <c r="U24" s="24">
         <f t="shared" si="9"/>
-        <v>7.8571428571428568</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="V24" s="27">
         <f t="shared" si="10"/>
-        <v>7.8571428571428568</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="3"/>
@@ -3226,7 +3247,7 @@
       <c r="E25" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="94">
         <v>13</v>
       </c>
       <c r="G25" s="33">
@@ -3304,14 +3325,14 @@
       <c r="E26" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="33">
-        <v>13</v>
+      <c r="F26" s="94">
+        <v>11.5</v>
       </c>
       <c r="G26" s="33">
         <v>2</v>
       </c>
       <c r="H26" s="28">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I26" s="33">
         <v>24</v>
@@ -3321,11 +3342,11 @@
       </c>
       <c r="K26" s="29">
         <f t="shared" ref="K26" si="88">G26*H26</f>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L26" s="30">
         <f t="shared" ref="L26" si="89">K26/(F26+M26+N26)</f>
-        <v>5.416666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" ref="M26" si="90">ROUNDDOWN(I26/3,0)</f>
@@ -3337,7 +3358,7 @@
       </c>
       <c r="O26" s="32">
         <f t="shared" ref="O26" si="92">F26+M26+N26</f>
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="P26" s="41"/>
       <c r="Q26" s="47">
@@ -3354,15 +3375,15 @@
       </c>
       <c r="T26" s="43">
         <f t="shared" ref="T26" si="96">K26/(F26+M26+Q26)</f>
-        <v>5.6521739130434785</v>
+        <v>5.5813953488372094</v>
       </c>
       <c r="U26" s="24">
         <f t="shared" ref="U26" si="97">K26/(F26+M26+R26)</f>
-        <v>5.416666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="V26" s="27">
         <f t="shared" ref="V26" si="98">K26/(F26+M26+S26)</f>
-        <v>5.2</v>
+        <v>5.1063829787234045</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="3"/>
@@ -3382,14 +3403,14 @@
       <c r="E27" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="94">
         <v>10</v>
       </c>
       <c r="G27" s="33">
         <v>2</v>
       </c>
       <c r="H27" s="28">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I27" s="33">
         <v>24</v>
@@ -3399,11 +3420,11 @@
       </c>
       <c r="K27" s="29">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L27" s="30">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="2"/>
@@ -3432,15 +3453,15 @@
       </c>
       <c r="T27" s="43">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U27" s="24">
         <f t="shared" si="9"/>
-        <v>6.666666666666667</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="V27" s="27">
         <f t="shared" si="10"/>
-        <v>6.3636363636363633</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="3"/>
@@ -3460,7 +3481,7 @@
       <c r="E28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="94">
         <v>16</v>
       </c>
       <c r="G28" s="33">
@@ -3538,8 +3559,8 @@
       <c r="E29" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="33">
-        <v>16</v>
+      <c r="F29" s="94">
+        <v>14.5</v>
       </c>
       <c r="G29" s="33">
         <v>2</v>
@@ -3559,7 +3580,7 @@
       </c>
       <c r="L29" s="30">
         <f t="shared" ref="L29" si="100">K29/(F29+M29+N29)</f>
-        <v>6.1111111111111107</v>
+        <v>6.3768115942028984</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" ref="M29" si="101">ROUNDDOWN(I29/3,0)</f>
@@ -3571,7 +3592,7 @@
       </c>
       <c r="O29" s="32">
         <f t="shared" ref="O29" si="103">F29+M29+N29</f>
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="P29" s="41"/>
       <c r="Q29" s="47">
@@ -3588,15 +3609,15 @@
       </c>
       <c r="T29" s="43">
         <f t="shared" ref="T29" si="107">K29/(F29+M29+Q29)</f>
-        <v>6.2857142857142856</v>
+        <v>6.5671641791044779</v>
       </c>
       <c r="U29" s="24">
         <f t="shared" ref="U29" si="108">K29/(F29+M29+R29)</f>
-        <v>6.1111111111111107</v>
+        <v>6.3768115942028984</v>
       </c>
       <c r="V29" s="27">
         <f t="shared" ref="V29" si="109">K29/(F29+M29+S29)</f>
-        <v>5.7894736842105265</v>
+        <v>6.0273972602739727</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="3"/>
@@ -3616,7 +3637,7 @@
       <c r="E30" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="94">
         <v>13</v>
       </c>
       <c r="G30" s="33">
@@ -3694,7 +3715,7 @@
       <c r="E31" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="94">
         <v>5</v>
       </c>
       <c r="G31" s="33">
@@ -3772,7 +3793,7 @@
       <c r="E32" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="94">
         <v>5</v>
       </c>
       <c r="G32" s="33">
@@ -3850,7 +3871,7 @@
       <c r="E33" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="94">
         <v>5</v>
       </c>
       <c r="G33" s="33">
@@ -3928,7 +3949,7 @@
       <c r="E34" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="94">
         <v>8</v>
       </c>
       <c r="G34" s="33">
@@ -4006,8 +4027,8 @@
       <c r="E35" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="33">
-        <v>8</v>
+      <c r="F35" s="94">
+        <v>7.5</v>
       </c>
       <c r="G35" s="33">
         <v>1</v>
@@ -4027,7 +4048,7 @@
       </c>
       <c r="L35" s="30">
         <f t="shared" ref="L35" si="122">K35/(F35+M35+N35)</f>
-        <v>5.4545454545454541</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="M35" s="31">
         <f t="shared" ref="M35" si="123">ROUNDDOWN(I35/3,0)</f>
@@ -4039,7 +4060,7 @@
       </c>
       <c r="O35" s="32">
         <f t="shared" ref="O35" si="125">F35+M35+N35</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="P35" s="41"/>
       <c r="Q35" s="47">
@@ -4056,15 +4077,15 @@
       </c>
       <c r="T35" s="43">
         <f t="shared" ref="T35" si="129">K35/(F35+M35+Q35)</f>
-        <v>5.4545454545454541</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="U35" s="24">
         <f t="shared" ref="U35" si="130">K35/(F35+M35+R35)</f>
-        <v>5.4545454545454541</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="V35" s="27">
         <f t="shared" ref="V35" si="131">K35/(F35+M35+S35)</f>
-        <v>5.4545454545454541</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="W35" s="6"/>
       <c r="X35" s="3"/>
@@ -4084,7 +4105,7 @@
       <c r="E36" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="94">
         <v>7</v>
       </c>
       <c r="G36" s="33">
@@ -4162,7 +4183,7 @@
       <c r="E37" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="94">
         <v>11</v>
       </c>
       <c r="G37" s="33">
@@ -4240,8 +4261,8 @@
       <c r="E38" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="33">
-        <v>11</v>
+      <c r="F38" s="94">
+        <v>10.5</v>
       </c>
       <c r="G38" s="33">
         <v>1</v>
@@ -4261,7 +4282,7 @@
       </c>
       <c r="L38" s="30">
         <f t="shared" ref="L38" si="133">K38/(F38+M38+N38)</f>
-        <v>5.5</v>
+        <v>5.67741935483871</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" ref="M38" si="134">ROUNDDOWN(I38/3,0)</f>
@@ -4273,7 +4294,7 @@
       </c>
       <c r="O38" s="32">
         <f t="shared" ref="O38" si="136">F38+M38+N38</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="P38" s="41"/>
       <c r="Q38" s="47">
@@ -4290,15 +4311,15 @@
       </c>
       <c r="T38" s="43">
         <f t="shared" ref="T38" si="140">K38/(F38+M38+Q38)</f>
-        <v>5.8666666666666663</v>
+        <v>6.068965517241379</v>
       </c>
       <c r="U38" s="24">
         <f t="shared" ref="U38" si="141">K38/(F38+M38+R38)</f>
-        <v>5.5</v>
+        <v>5.67741935483871</v>
       </c>
       <c r="V38" s="27">
         <f t="shared" ref="V38" si="142">K38/(F38+M38+S38)</f>
-        <v>5.5</v>
+        <v>5.67741935483871</v>
       </c>
       <c r="W38" s="6"/>
       <c r="X38" s="3"/>
@@ -4318,7 +4339,7 @@
       <c r="E39" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="94">
         <v>10</v>
       </c>
       <c r="G39" s="33">
@@ -4396,7 +4417,7 @@
       <c r="E40" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="94">
         <v>14</v>
       </c>
       <c r="G40" s="33">
@@ -4474,7 +4495,7 @@
       <c r="E41" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="94">
         <v>13</v>
       </c>
       <c r="G41" s="33">
@@ -4552,7 +4573,7 @@
       <c r="E42" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="94">
         <v>12</v>
       </c>
       <c r="G42" s="33">
@@ -4630,7 +4651,7 @@
       <c r="E43" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="95">
         <v>1</v>
       </c>
       <c r="G43" s="15">
@@ -4708,7 +4729,7 @@
       <c r="E44" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="95">
         <v>1</v>
       </c>
       <c r="G44" s="15">
@@ -4786,7 +4807,7 @@
       <c r="E45" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="95">
         <v>1</v>
       </c>
       <c r="G45" s="15">
@@ -4864,7 +4885,7 @@
       <c r="E46" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="95">
         <v>2</v>
       </c>
       <c r="G46" s="15">
@@ -4942,7 +4963,7 @@
       <c r="E47" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="95">
         <v>2</v>
       </c>
       <c r="G47" s="15">
@@ -5020,7 +5041,7 @@
       <c r="E48" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="95">
         <v>2</v>
       </c>
       <c r="G48" s="15">
@@ -5098,7 +5119,7 @@
       <c r="E49" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="95">
         <v>3</v>
       </c>
       <c r="G49" s="15">
@@ -5176,7 +5197,7 @@
       <c r="E50" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="95">
         <v>3</v>
       </c>
       <c r="G50" s="15">
@@ -5254,7 +5275,7 @@
       <c r="E51" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="95">
         <v>3</v>
       </c>
       <c r="G51" s="15">
@@ -5332,7 +5353,7 @@
       <c r="E52" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="96">
         <v>2</v>
       </c>
       <c r="G52" s="14">
@@ -5410,7 +5431,7 @@
       <c r="E53" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="96">
         <v>2</v>
       </c>
       <c r="G53" s="14">
@@ -5488,7 +5509,7 @@
       <c r="E54" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="96">
         <v>2</v>
       </c>
       <c r="G54" s="14">
@@ -5566,7 +5587,7 @@
       <c r="E55" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="96">
         <v>5</v>
       </c>
       <c r="G55" s="14">
@@ -5644,7 +5665,7 @@
       <c r="E56" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="96">
         <v>5</v>
       </c>
       <c r="G56" s="14">
@@ -5722,7 +5743,7 @@
       <c r="E57" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="96">
         <v>5</v>
       </c>
       <c r="G57" s="14">
@@ -5800,7 +5821,7 @@
       <c r="E58" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="96">
         <v>7</v>
       </c>
       <c r="G58" s="14">
@@ -5878,7 +5899,7 @@
       <c r="E59" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="96">
         <v>7</v>
       </c>
       <c r="G59" s="14">
@@ -5956,7 +5977,7 @@
       <c r="E60" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="96">
         <v>7</v>
       </c>
       <c r="G60" s="14">
@@ -6034,7 +6055,7 @@
       <c r="E61" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="96">
         <v>10</v>
       </c>
       <c r="G61" s="14">
@@ -6112,7 +6133,7 @@
       <c r="E62" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="96">
         <v>10</v>
       </c>
       <c r="G62" s="14">
@@ -6190,7 +6211,7 @@
       <c r="E63" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="96">
         <v>10</v>
       </c>
       <c r="G63" s="14">
@@ -6268,7 +6289,7 @@
       <c r="E64" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="97">
         <v>1</v>
       </c>
       <c r="G64" s="35">
@@ -6332,7 +6353,7 @@
       <c r="E65" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="97">
         <v>1</v>
       </c>
       <c r="G65" s="35">
@@ -6396,7 +6417,7 @@
       <c r="E66" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="97">
         <v>1</v>
       </c>
       <c r="G66" s="35">
@@ -6460,7 +6481,7 @@
       <c r="E67" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="98">
         <v>1</v>
       </c>
       <c r="G67" s="36">
@@ -6524,7 +6545,7 @@
       <c r="E68" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="98">
         <v>1</v>
       </c>
       <c r="G68" s="36">
@@ -6534,7 +6555,7 @@
         <v>40</v>
       </c>
       <c r="I68" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J68" s="61" t="s">
         <v>0</v>
@@ -6588,7 +6609,7 @@
       <c r="E69" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="98">
         <v>1</v>
       </c>
       <c r="G69" s="36">
@@ -6598,7 +6619,7 @@
         <v>45</v>
       </c>
       <c r="I69" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J69" s="61" t="s">
         <v>0</v>
@@ -6652,7 +6673,7 @@
       <c r="E70" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="97">
         <v>2</v>
       </c>
       <c r="G70" s="35">
@@ -6716,14 +6737,14 @@
       <c r="E71" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="97">
         <v>2</v>
       </c>
       <c r="G71" s="35">
         <v>1</v>
       </c>
       <c r="H71" s="35">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I71" s="35">
         <v>18</v>
@@ -6733,11 +6754,11 @@
       </c>
       <c r="K71" s="37">
         <f t="shared" ref="K71" si="243">G71*H71</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L71" s="20">
         <f t="shared" ref="L71" si="244">K71/(F71+M71)</f>
-        <v>5</v>
+        <v>5.625</v>
       </c>
       <c r="M71" s="38">
         <f t="shared" ref="M71" si="245">ROUNDDOWN(I71/3,0)</f>
@@ -6780,7 +6801,7 @@
       <c r="E72" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="97">
         <v>2</v>
       </c>
       <c r="G72" s="35">
@@ -6844,7 +6865,7 @@
       <c r="E73" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="97">
         <v>5</v>
       </c>
       <c r="G73" s="35">
@@ -6908,7 +6929,7 @@
       <c r="E74" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="97">
         <v>5</v>
       </c>
       <c r="G74" s="35">
@@ -6972,7 +6993,7 @@
       <c r="E75" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="97">
         <v>5</v>
       </c>
       <c r="G75" s="35">
@@ -7036,7 +7057,7 @@
       <c r="E76" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="97">
         <v>5</v>
       </c>
       <c r="G76" s="35">
@@ -7100,14 +7121,14 @@
       <c r="E77" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="97">
         <v>5</v>
       </c>
       <c r="G77" s="35">
         <v>1</v>
       </c>
       <c r="H77" s="35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I77" s="35">
         <v>25</v>
@@ -7117,11 +7138,11 @@
       </c>
       <c r="K77" s="37">
         <f t="shared" ref="K77" si="251">G77*H77</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L77" s="20">
         <f t="shared" ref="L77" si="252">K77/(F77+M77)</f>
-        <v>3.4615384615384617</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="M77" s="38">
         <f t="shared" ref="M77" si="253">ROUNDDOWN(I77/3,0)</f>
@@ -7164,7 +7185,7 @@
       <c r="E78" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="97">
         <v>4</v>
       </c>
       <c r="G78" s="35">
@@ -7228,7 +7249,7 @@
       <c r="E79" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="97">
         <v>7</v>
       </c>
       <c r="G79" s="35">
@@ -7292,7 +7313,7 @@
       <c r="E80" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="97">
         <v>6</v>
       </c>
       <c r="G80" s="35">
@@ -7356,7 +7377,7 @@
       <c r="E81" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="97">
         <v>6</v>
       </c>
       <c r="G81" s="35">
@@ -7420,7 +7441,7 @@
       <c r="E82" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="97">
         <v>7</v>
       </c>
       <c r="G82" s="35">
@@ -7484,7 +7505,7 @@
       <c r="E83" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="97">
         <v>7</v>
       </c>
       <c r="G83" s="35">
@@ -7548,7 +7569,7 @@
       <c r="E84" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="97">
         <v>7</v>
       </c>
       <c r="G84" s="35">
@@ -7612,7 +7633,7 @@
       <c r="E85" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="97">
         <v>7</v>
       </c>
       <c r="G85" s="35">
@@ -7676,7 +7697,7 @@
       <c r="E86" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="97">
         <v>6</v>
       </c>
       <c r="G86" s="35">
@@ -7740,7 +7761,7 @@
       <c r="E87" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="97">
         <v>5</v>
       </c>
       <c r="G87" s="35">
@@ -7804,7 +7825,7 @@
       <c r="E88" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="97">
         <v>6</v>
       </c>
       <c r="G88" s="35">
@@ -7868,7 +7889,7 @@
       <c r="E89" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="97">
         <v>6</v>
       </c>
       <c r="G89" s="35">
@@ -7932,7 +7953,7 @@
       <c r="E90" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="97">
         <v>6</v>
       </c>
       <c r="G90" s="35">
@@ -7996,7 +8017,7 @@
       <c r="E91" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="99">
         <f>0.5*G91</f>
         <v>0.5</v>
       </c>
@@ -8062,7 +8083,7 @@
       <c r="E92" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="99">
         <f>0.5*G92</f>
         <v>0.5</v>
       </c>
@@ -8128,7 +8149,7 @@
       <c r="E93" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="99">
         <f t="shared" ref="F93" si="275">0.5*G93</f>
         <v>0.5</v>
       </c>
@@ -8194,7 +8215,7 @@
       <c r="E94" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="99">
         <f t="shared" ref="F94:F96" si="276">0.5*G94</f>
         <v>0.5</v>
       </c>
@@ -8260,7 +8281,7 @@
       <c r="E95" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="99">
         <f t="shared" ref="F95" si="277">0.5*G95</f>
         <v>0.5</v>
       </c>
@@ -8326,7 +8347,7 @@
       <c r="E96" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="99">
         <f t="shared" si="276"/>
         <v>0.5</v>
       </c>
@@ -8392,7 +8413,7 @@
       <c r="E97" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="99">
         <f>1*G97</f>
         <v>1</v>
       </c>
@@ -8457,7 +8478,7 @@
       <c r="E98" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="99">
         <f>1*G98</f>
         <v>1</v>
       </c>
@@ -8522,7 +8543,7 @@
       <c r="E99" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="99">
         <f t="shared" ref="F99" si="286">1*G99</f>
         <v>1</v>
       </c>
@@ -8588,7 +8609,7 @@
       <c r="E100" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="99">
         <v>0.5</v>
       </c>
       <c r="G100" s="18">
@@ -8653,7 +8674,7 @@
       <c r="E101" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="99">
         <v>0.5</v>
       </c>
       <c r="G101" s="18">
@@ -8718,7 +8739,7 @@
       <c r="E102" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="99">
         <v>0</v>
       </c>
       <c r="G102" s="18">
@@ -35527,11 +35548,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -35539,11 +35560,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:V42 U43:U44 T45:V63 L4:L102">
     <cfRule type="colorScale" priority="71">
